--- a/SuppXLS/Scen_EU-Ren_Target2020.xlsx
+++ b/SuppXLS/Scen_EU-Ren_Target2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU-TIMES\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU_TIMES_Veda2p0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D97229-8BA5-45F4-BDD6-D5B25EB5BE35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921CBD91-FAA9-4571-A0A1-CF05C3CAC009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="853"/>
+    <workbookView xWindow="3300" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RES Constraint" sheetId="14" r:id="rId1"/>
@@ -39,14 +39,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KanORS</author>
     <author>ese-veda01</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP3" authorId="1" shapeId="0">
+    <comment ref="AP3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="2" shapeId="0">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="2" shapeId="0">
+    <comment ref="C9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="2" shapeId="0">
+    <comment ref="C10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="2" shapeId="0">
+    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="2" shapeId="0">
+    <comment ref="G15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="2" shapeId="0">
+    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="2" shapeId="0">
+    <comment ref="G22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="2" shapeId="0">
+    <comment ref="C23" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="2" shapeId="0">
+    <comment ref="G29" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="2" shapeId="0">
+    <comment ref="C30" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="2" shapeId="0">
+    <comment ref="G36" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="2" shapeId="0">
+    <comment ref="C37" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -572,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G43" authorId="2" shapeId="0">
+    <comment ref="G43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="2" shapeId="0">
+    <comment ref="C44" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="2" shapeId="0">
+    <comment ref="G50" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -697,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="2" shapeId="0">
+    <comment ref="C51" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -722,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -747,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="0" shapeId="0">
+    <comment ref="G59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -800,13 +800,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -831,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="1" shapeId="0">
+    <comment ref="C55" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -856,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J55" authorId="1" shapeId="0">
+    <comment ref="J55" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -886,12 +886,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -916,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -946,12 +946,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ese-veda01</author>
   </authors>
   <commentList>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -975,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0">
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1004,12 +1004,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>George</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1055,7 +1055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="488">
   <si>
     <t>AT</t>
   </si>
@@ -1719,9 +1719,6 @@
     <t>TUC_EU-ElcTransCons-NR</t>
   </si>
   <si>
-    <t>TT*</t>
-  </si>
-  <si>
     <t>UC_Desc</t>
   </si>
   <si>
@@ -2602,24 +2599,29 @@
   </si>
   <si>
     <t>TRA_Car*,TRA_Mot*,TRA_Mop*,TRA_Lcv*,TRA_Hdt*,TRA_Bus*</t>
+  </si>
+  <si>
+    <t>TRAELC*</t>
+  </si>
+  <si>
+    <t>TRA_Rai*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="212" formatCode="0.0"/>
-    <numFmt numFmtId="213" formatCode="0.000"/>
-    <numFmt numFmtId="219" formatCode="0.0%"/>
-    <numFmt numFmtId="226" formatCode="#0.0"/>
-    <numFmt numFmtId="229" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="230" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="231" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="232" formatCode="#,##0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="#0.0"/>
+    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="57" x14ac:knownFonts="1">
     <font>
@@ -3701,7 +3703,7 @@
     <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
@@ -3718,7 +3720,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11"/>
-    <xf numFmtId="229" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3791,7 +3793,7 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="232" fontId="49" fillId="29" borderId="1" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="49" fillId="29" borderId="1" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3800,9 +3802,9 @@
     <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="230" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="27" borderId="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -3833,13 +3835,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="231" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3898,7 +3900,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="212" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3916,7 +3918,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="212" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3958,8 +3960,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="127" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="219" fontId="30" fillId="37" borderId="0" xfId="127" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="219" fontId="0" fillId="35" borderId="0" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="30" fillId="37" borderId="0" xfId="127" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="35" borderId="0" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="127" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3968,7 +3970,7 @@
     <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="127" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="127" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="213" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3980,11 +3982,11 @@
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="30" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="226" fontId="0" fillId="0" borderId="30" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="226" fontId="40" fillId="0" borderId="30" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="30" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="32" borderId="0" xfId="141" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3993,183 +3995,184 @@
     <xf numFmtId="2" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="175">
-    <cellStyle name="20% - Accent1 2" xfId="1"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="3"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="4"/>
-    <cellStyle name="20% - Accent3 2" xfId="5"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="6"/>
-    <cellStyle name="20% - Accent4 2" xfId="7"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="8"/>
-    <cellStyle name="20% - Accent5 2" xfId="9"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="10"/>
-    <cellStyle name="20% - Accent6 2" xfId="11"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="12"/>
-    <cellStyle name="2x indented GHG Textfiels" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="15"/>
-    <cellStyle name="40% - Accent2 2" xfId="16"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="17"/>
-    <cellStyle name="40% - Accent3 2" xfId="18"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="19"/>
-    <cellStyle name="40% - Accent4 2" xfId="20"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="21"/>
-    <cellStyle name="40% - Accent5 2" xfId="22"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="23"/>
-    <cellStyle name="40% - Accent6 2" xfId="24"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="25"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent1 2 2" xfId="28"/>
-    <cellStyle name="60% - Accent2 2" xfId="29"/>
-    <cellStyle name="60% - Accent2 2 2" xfId="30"/>
-    <cellStyle name="60% - Accent3 2" xfId="31"/>
-    <cellStyle name="60% - Accent3 2 2" xfId="32"/>
-    <cellStyle name="60% - Accent4 2" xfId="33"/>
-    <cellStyle name="60% - Accent4 2 2" xfId="34"/>
-    <cellStyle name="60% - Accent5 2" xfId="35"/>
-    <cellStyle name="60% - Accent5 2 2" xfId="36"/>
-    <cellStyle name="60% - Accent6 2" xfId="37"/>
-    <cellStyle name="60% - Accent6 2 2" xfId="38"/>
-    <cellStyle name="Accent1 2" xfId="39"/>
-    <cellStyle name="Accent1 2 2" xfId="40"/>
-    <cellStyle name="Accent2 2" xfId="41"/>
-    <cellStyle name="Accent2 2 2" xfId="42"/>
-    <cellStyle name="Accent3 2" xfId="43"/>
-    <cellStyle name="Accent3 2 2" xfId="44"/>
-    <cellStyle name="Accent4 2" xfId="45"/>
-    <cellStyle name="Accent4 2 2" xfId="46"/>
-    <cellStyle name="Accent5 2" xfId="47"/>
-    <cellStyle name="Accent5 2 2" xfId="48"/>
-    <cellStyle name="Accent6 2" xfId="49"/>
-    <cellStyle name="Accent6 2 2" xfId="50"/>
-    <cellStyle name="AggblueBoldCels" xfId="51"/>
-    <cellStyle name="AggblueBoldCels 2" xfId="52"/>
-    <cellStyle name="AggblueCels" xfId="53"/>
-    <cellStyle name="AggblueCels 2" xfId="54"/>
-    <cellStyle name="AggblueCels_1x" xfId="55"/>
-    <cellStyle name="AggBoldCells" xfId="56"/>
-    <cellStyle name="AggCels" xfId="57"/>
-    <cellStyle name="AggGreen" xfId="58"/>
-    <cellStyle name="AggGreen 2" xfId="59"/>
-    <cellStyle name="AggGreen_Bbdr" xfId="60"/>
-    <cellStyle name="AggGreen12" xfId="61"/>
-    <cellStyle name="AggGreen12 2" xfId="62"/>
-    <cellStyle name="AggOrange" xfId="63"/>
-    <cellStyle name="AggOrange 2" xfId="64"/>
-    <cellStyle name="AggOrange_B_border" xfId="65"/>
-    <cellStyle name="AggOrange9" xfId="66"/>
-    <cellStyle name="AggOrange9 2" xfId="67"/>
-    <cellStyle name="AggOrangeLB_2x" xfId="68"/>
-    <cellStyle name="AggOrangeLBorder" xfId="69"/>
-    <cellStyle name="AggOrangeLBorder 2" xfId="70"/>
-    <cellStyle name="AggOrangeRBorder" xfId="71"/>
-    <cellStyle name="AggOrangeRBorder 2" xfId="72"/>
-    <cellStyle name="Bad 2" xfId="73"/>
-    <cellStyle name="Bad 2 2" xfId="74"/>
-    <cellStyle name="Bold GHG Numbers (0.00)" xfId="75"/>
-    <cellStyle name="Calculation 2" xfId="76"/>
-    <cellStyle name="Calculation 2 2" xfId="77"/>
-    <cellStyle name="Check Cell 2" xfId="78"/>
-    <cellStyle name="Check Cell 2 2" xfId="79"/>
-    <cellStyle name="Comma 2 2" xfId="80"/>
-    <cellStyle name="Constants" xfId="81"/>
-    <cellStyle name="CustomCellsOrange" xfId="82"/>
-    <cellStyle name="CustomizationCells" xfId="83"/>
-    <cellStyle name="CustomizationGreenCells" xfId="84"/>
-    <cellStyle name="DocBox_EmptyRow" xfId="85"/>
-    <cellStyle name="Empty_B_border" xfId="86"/>
-    <cellStyle name="Euro" xfId="87"/>
-    <cellStyle name="Explanatory Text 2" xfId="88"/>
-    <cellStyle name="Explanatory Text 2 2" xfId="89"/>
-    <cellStyle name="Float" xfId="90"/>
-    <cellStyle name="Float 2" xfId="91"/>
-    <cellStyle name="Good 2" xfId="92"/>
-    <cellStyle name="Good 2 2" xfId="93"/>
-    <cellStyle name="Heading 1 2" xfId="94"/>
-    <cellStyle name="Heading 1 2 2" xfId="95"/>
-    <cellStyle name="Heading 2 2" xfId="96"/>
-    <cellStyle name="Heading 2 2 2" xfId="97"/>
-    <cellStyle name="Heading 3 2" xfId="98"/>
-    <cellStyle name="Heading 3 2 2" xfId="99"/>
-    <cellStyle name="Heading 4 2" xfId="100"/>
-    <cellStyle name="Heading 4 2 2" xfId="101"/>
-    <cellStyle name="Headline" xfId="102"/>
-    <cellStyle name="Input 2" xfId="103"/>
-    <cellStyle name="Input 2 2" xfId="104"/>
-    <cellStyle name="InputCells" xfId="105"/>
-    <cellStyle name="InputCells12" xfId="106"/>
-    <cellStyle name="InputCells12 2" xfId="107"/>
-    <cellStyle name="InputCells12_BBorder" xfId="108"/>
-    <cellStyle name="IntCells" xfId="109"/>
-    <cellStyle name="KP_thin_border_dark_grey" xfId="110"/>
-    <cellStyle name="Linked Cell 2" xfId="111"/>
-    <cellStyle name="Linked Cell 2 2" xfId="112"/>
+    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Accent1 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Accent2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Accent3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Accent3 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Accent4 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Accent4 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Accent5 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Accent5 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Accent6 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Accent6 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="AggblueBoldCels" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="AggblueBoldCels 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="AggblueCels" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="AggblueCels 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="AggblueCels_1x" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="AggBoldCells" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="AggCels" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="AggGreen" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="AggGreen 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="AggGreen_Bbdr" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="AggGreen12" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="AggGreen12 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="AggOrange" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="AggOrange 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="AggOrange_B_border" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="AggOrange9" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="AggOrange9 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="AggOrangeLB_2x" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="AggOrangeLBorder" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="AggOrangeLBorder 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="AggOrangeRBorder" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="AggOrangeRBorder 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Bad 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Bad 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Bold GHG Numbers (0.00)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Calculation 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Calculation 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Check Cell 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Check Cell 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Constants" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="CustomCellsOrange" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="CustomizationCells" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="CustomizationGreenCells" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="DocBox_EmptyRow" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Empty_B_border" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Euro" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Float" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Float 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Good 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Good 2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Heading 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Heading 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Heading 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Heading 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Heading 4 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Headline" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Input 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Input 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="InputCells" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="InputCells12" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="InputCells12 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="InputCells12_BBorder" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="IntCells" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="KP_thin_border_dark_grey" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
     <cellStyle name="Neutral" xfId="113" builtinId="28"/>
-    <cellStyle name="Neutral 2" xfId="114"/>
-    <cellStyle name="Neutral 2 2" xfId="115"/>
+    <cellStyle name="Neutral 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Neutral 2 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="116"/>
-    <cellStyle name="Normal 2 3" xfId="117"/>
-    <cellStyle name="Normal 2 4" xfId="118"/>
-    <cellStyle name="Normal 2 5" xfId="119"/>
-    <cellStyle name="Normal 2 6" xfId="120"/>
-    <cellStyle name="Normal 3 2" xfId="121"/>
-    <cellStyle name="Normal 3 3" xfId="122"/>
-    <cellStyle name="Normal 3 4" xfId="123"/>
-    <cellStyle name="Normal 4 2" xfId="124"/>
-    <cellStyle name="Normal 4 3" xfId="125"/>
-    <cellStyle name="Normal 5 2" xfId="126"/>
-    <cellStyle name="Normal 6" xfId="127"/>
-    <cellStyle name="Normal 6 2" xfId="128"/>
-    <cellStyle name="Normal 7" xfId="129"/>
-    <cellStyle name="Normal 7 2" xfId="130"/>
-    <cellStyle name="Normal 7 3" xfId="131"/>
-    <cellStyle name="Normal 8" xfId="132"/>
-    <cellStyle name="Normal 8 2" xfId="133"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="134"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="135"/>
-    <cellStyle name="Normal GHG whole table" xfId="136"/>
-    <cellStyle name="Normal GHG-Shade" xfId="137"/>
-    <cellStyle name="Normal GHG-Shade 2" xfId="138"/>
-    <cellStyle name="Normál_Munka1" xfId="139"/>
-    <cellStyle name="Normale_B2020" xfId="140"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="141"/>
-    <cellStyle name="Note 2" xfId="142"/>
-    <cellStyle name="Note 2 2" xfId="143"/>
-    <cellStyle name="Output 2" xfId="144"/>
-    <cellStyle name="Output 2 2" xfId="145"/>
-    <cellStyle name="Pattern" xfId="146"/>
+    <cellStyle name="Normal 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 2 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 2 4" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 2 5" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 2 6" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 4" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 5 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 6 2" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 7 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 7 3" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 8" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 8 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normal GHG whole table" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Normál_Munka1" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Normale_B2020" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Note 2" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Note 2 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Output 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Output 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Pattern" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="Percent" xfId="147" builtinId="5"/>
-    <cellStyle name="Percent 2 2" xfId="148"/>
-    <cellStyle name="Percent 2 3" xfId="149"/>
-    <cellStyle name="Percent 3" xfId="150"/>
-    <cellStyle name="Percent 3 2" xfId="151"/>
-    <cellStyle name="Percent 3 3" xfId="152"/>
-    <cellStyle name="Pilkku_Layo9704" xfId="153"/>
-    <cellStyle name="Pyör. luku_Layo9704" xfId="154"/>
-    <cellStyle name="Pyör. valuutta_Layo9704" xfId="155"/>
-    <cellStyle name="Shade" xfId="156"/>
-    <cellStyle name="Standard 2" xfId="157"/>
-    <cellStyle name="Style 21" xfId="158"/>
-    <cellStyle name="Style 21 2" xfId="159"/>
-    <cellStyle name="Style 22" xfId="160"/>
-    <cellStyle name="Style 23" xfId="161"/>
-    <cellStyle name="Style 24" xfId="162"/>
-    <cellStyle name="Style 25" xfId="163"/>
-    <cellStyle name="Style 25 2" xfId="164"/>
-    <cellStyle name="Style 26" xfId="165"/>
-    <cellStyle name="Title 2" xfId="166"/>
-    <cellStyle name="Title 2 2" xfId="167"/>
-    <cellStyle name="Total 2" xfId="168"/>
-    <cellStyle name="Total 2 2" xfId="169"/>
-    <cellStyle name="Valuutta_Layo9704" xfId="170"/>
-    <cellStyle name="Warning Text 2" xfId="171"/>
-    <cellStyle name="Warning Text 2 2" xfId="172"/>
-    <cellStyle name="Гиперссылка" xfId="173"/>
-    <cellStyle name="Обычный_2++" xfId="174"/>
+    <cellStyle name="Percent 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Percent 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Percent 3" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Percent 3 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Percent 3 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Pilkku_Layo9704" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Pyör. luku_Layo9704" xfId="154" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Pyör. valuutta_Layo9704" xfId="155" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Shade" xfId="156" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Standard 2" xfId="157" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Style 21" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Style 21 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Style 22" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Style 23" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Style 24" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Style 25" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Style 25 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Style 26" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Title 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Title 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Total 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Total 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Valuutta_Layo9704" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Warning Text 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Warning Text 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Гиперссылка" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Обычный_2++" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4504,12 +4507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4586,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>11</v>
@@ -4638,7 +4641,7 @@
         <v>27</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
@@ -4743,7 +4746,7 @@
     </row>
     <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -11451,7 +11454,7 @@
         <v>10</v>
       </c>
       <c r="X61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y61" t="s">
         <v>11</v>
@@ -12254,7 +12257,7 @@
         <v>10</v>
       </c>
       <c r="X71" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y71" t="s">
         <v>11</v>
@@ -12302,7 +12305,7 @@
         <v>27</v>
       </c>
       <c r="AP71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="10:42" x14ac:dyDescent="0.2">
@@ -12391,7 +12394,7 @@
         <v>160</v>
       </c>
       <c r="AP72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="10:42" x14ac:dyDescent="0.2">
@@ -12962,7 +12965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13188,11 +13191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM80"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13215,7 +13218,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E3" s="81"/>
     </row>
@@ -13266,7 +13269,7 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -13294,7 +13297,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -13320,7 +13323,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -13345,7 +13348,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -13370,7 +13373,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -13677,10 +13680,10 @@
         <v>171</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AD40" s="50" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -13718,7 +13721,7 @@
         <v>10</v>
       </c>
       <c r="N41" s="90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O41" s="90" t="s">
         <v>11</v>
@@ -13766,12 +13769,12 @@
         <v>27</v>
       </c>
       <c r="AD41" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42">
         <v>2010</v>
@@ -13891,7 +13894,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B43">
         <v>2020</v>
@@ -14272,7 +14275,7 @@
         <v>34</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>61</v>
@@ -14407,13 +14410,13 @@
         <v>190</v>
       </c>
       <c r="C50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E50" s="105" t="s">
         <v>486</v>
       </c>
-      <c r="E50" s="50" t="s">
-        <v>180</v>
-      </c>
       <c r="F50" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G50" t="s">
         <v>62</v>
@@ -14555,8 +14558,8 @@
         <f>$C$50</f>
         <v>TRA_Car*,TRA_Mot*,TRA_Mop*,TRA_Lcv*,TRA_Hdt*,TRA_Bus*</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>180</v>
+      <c r="E52" s="105" t="s">
+        <v>486</v>
       </c>
       <c r="G52" t="s">
         <v>62</v>
@@ -14684,8 +14687,8 @@
         <f>$C$50</f>
         <v>TRA_Car*,TRA_Mot*,TRA_Mop*,TRA_Lcv*,TRA_Hdt*,TRA_Bus*</v>
       </c>
-      <c r="E53" s="50" t="s">
-        <v>180</v>
+      <c r="E53" s="105" t="s">
+        <v>486</v>
       </c>
       <c r="G53" t="s">
         <v>62</v>
@@ -14813,8 +14816,8 @@
         <f>$C$50</f>
         <v>TRA_Car*,TRA_Mot*,TRA_Mop*,TRA_Lcv*,TRA_Hdt*,TRA_Bus*</v>
       </c>
-      <c r="E54" s="50" t="s">
-        <v>180</v>
+      <c r="E54" s="105" t="s">
+        <v>486</v>
       </c>
       <c r="G54" t="s">
         <v>62</v>
@@ -14941,13 +14944,13 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
         <v>62</v>
@@ -15078,10 +15081,10 @@
     <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" t="s">
@@ -15206,10 +15209,10 @@
     <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F57" s="50"/>
       <c r="G57" t="s">
@@ -15334,10 +15337,10 @@
     <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="D58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" t="s">
@@ -15470,13 +15473,13 @@
         <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F60" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -15606,10 +15609,10 @@
     <row r="61" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="D61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F61" s="50"/>
       <c r="G61" t="s">
@@ -15742,13 +15745,13 @@
         <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>180</v>
       </c>
       <c r="F63" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G63" t="s">
         <v>62</v>
@@ -15888,7 +15891,7 @@
       <c r="B65" s="13"/>
       <c r="C65" t="str">
         <f>$C$63</f>
-        <v>TT*</v>
+        <v>TRA_Rai*</v>
       </c>
       <c r="E65" s="50" t="s">
         <v>180</v>
@@ -16017,7 +16020,7 @@
       <c r="B66" s="13"/>
       <c r="C66" t="str">
         <f>$C$63</f>
-        <v>TT*</v>
+        <v>TRA_Rai*</v>
       </c>
       <c r="E66" s="50" t="s">
         <v>180</v>
@@ -16146,7 +16149,7 @@
       <c r="B67" s="13"/>
       <c r="C67" t="str">
         <f>$C$63</f>
-        <v>TT*</v>
+        <v>TRA_Rai*</v>
       </c>
       <c r="E67" s="50" t="s">
         <v>180</v>
@@ -16276,27 +16279,27 @@
         <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.2">
@@ -16309,12 +16312,12 @@
     </row>
     <row r="79" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -16327,12 +16330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:AL52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16345,7 +16348,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>82</v>
@@ -16357,7 +16360,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>83</v>
@@ -16404,7 +16407,7 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O4" s="103">
         <f>O6+O8+O9</f>
@@ -16460,7 +16463,7 @@
         <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O6" s="24">
         <v>4047</v>
@@ -16485,7 +16488,7 @@
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O8" s="24">
         <v>332</v>
@@ -16499,7 +16502,7 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F9">
         <v>2012</v>
@@ -16509,7 +16512,7 @@
         <v>4050.0758753343484</v>
       </c>
       <c r="N9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O9" s="104">
         <v>23.256386232987399</v>
@@ -16789,7 +16792,7 @@
     </row>
     <row r="25" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N25" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O25" s="42">
         <v>65.2</v>
@@ -16800,7 +16803,7 @@
       <c r="Q25" s="36"/>
       <c r="R25" s="37"/>
       <c r="S25" s="43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T25" s="39">
         <v>44.8</v>
@@ -17123,7 +17126,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="15" x14ac:dyDescent="0.25">
@@ -17182,7 +17185,7 @@
         <v>10</v>
       </c>
       <c r="T45" s="43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U45" s="38" t="s">
         <v>11</v>
@@ -17342,7 +17345,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15" x14ac:dyDescent="0.25">
@@ -17415,7 +17418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17795,7 +17798,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>145</v>
@@ -18275,10 +18278,10 @@
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="74">
         <v>0.155</v>
@@ -18338,7 +18341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:EL74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -18466,22 +18469,22 @@
   <sheetData>
     <row r="1" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:142" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6">
         <v>2005</v>
@@ -18906,10 +18909,10 @@
     </row>
     <row r="7" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" t="s">
         <v>450</v>
-      </c>
-      <c r="B7" t="s">
-        <v>451</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -18945,10 +18948,10 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
@@ -19029,10 +19032,10 @@
         <v>10</v>
       </c>
       <c r="AP7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AQ7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR7" t="s">
         <v>11</v>
@@ -19113,10 +19116,10 @@
         <v>10</v>
       </c>
       <c r="BR7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BS7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BT7" t="s">
         <v>11</v>
@@ -19197,10 +19200,10 @@
         <v>10</v>
       </c>
       <c r="CT7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="CU7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="CV7" t="s">
         <v>11</v>
@@ -19281,10 +19284,10 @@
         <v>10</v>
       </c>
       <c r="DV7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="DW7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="DX7" t="s">
         <v>11</v>
@@ -19334,10 +19337,10 @@
     </row>
     <row r="8" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" t="s">
         <v>453</v>
-      </c>
-      <c r="B8" t="s">
-        <v>454</v>
       </c>
       <c r="C8" s="8">
         <v>0.19950510085094</v>
@@ -19716,10 +19719,10 @@
     </row>
     <row r="9" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" s="8">
         <v>0.65925993718298004</v>
@@ -20124,10 +20127,10 @@
     </row>
     <row r="10" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" s="8">
         <v>4.9757617449013196</v>
@@ -20540,10 +20543,10 @@
     </row>
     <row r="11" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -20732,10 +20735,10 @@
     </row>
     <row r="12" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12" s="8">
         <v>5.4939617858639904</v>
@@ -21114,10 +21117,10 @@
     </row>
     <row r="13" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -21292,10 +21295,10 @@
     </row>
     <row r="14" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" s="8">
         <v>1.6280246606859099</v>
@@ -21548,10 +21551,10 @@
     </row>
     <row r="15" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -21702,10 +21705,10 @@
     </row>
     <row r="16" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C16" s="8">
         <v>54.236007672153001</v>
@@ -22110,10 +22113,10 @@
     </row>
     <row r="17" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
@@ -22390,10 +22393,10 @@
     </row>
     <row r="18" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18" s="8">
         <v>2.9360339951290799E-2</v>
@@ -22724,10 +22727,10 @@
     </row>
     <row r="19" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -22976,10 +22979,10 @@
     </row>
     <row r="20" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C20" s="8">
         <v>0.667726589167704</v>
@@ -23382,7 +23385,7 @@
     </row>
     <row r="21" spans="1:142" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C21" s="98">
         <f>SUM(C8:C20)</f>
@@ -23947,7 +23950,7 @@
     </row>
     <row r="22" spans="1:142" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C22" s="98">
         <f>(C8+C9+C13+C15+C16+C18+C19+C20)/C21</f>
@@ -24512,10 +24515,10 @@
     </row>
     <row r="23" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="8">
         <v>0.19950510085094</v>
@@ -24872,10 +24875,10 @@
     </row>
     <row r="24" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C24" s="8">
         <v>0.65233775940241701</v>
@@ -25278,10 +25281,10 @@
     </row>
     <row r="25" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C25" s="8">
         <v>4.9873445869745598</v>
@@ -25666,10 +25669,10 @@
     </row>
     <row r="26" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -25918,10 +25921,10 @@
     </row>
     <row r="27" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C27" s="8">
         <v>5.4893011215713097</v>
@@ -26296,10 +26299,10 @@
     </row>
     <row r="28" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" t="s">
         <v>467</v>
-      </c>
-      <c r="B28" t="s">
-        <v>468</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -26474,10 +26477,10 @@
     </row>
     <row r="29" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -26652,10 +26655,10 @@
     </row>
     <row r="30" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C30" s="8">
         <v>1.6280246606859099</v>
@@ -26892,10 +26895,10 @@
     </row>
     <row r="31" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -27048,10 +27051,10 @@
     </row>
     <row r="32" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C32" s="8">
         <v>54.236007672153001</v>
@@ -27456,10 +27459,10 @@
     </row>
     <row r="33" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8">
@@ -27740,10 +27743,10 @@
     </row>
     <row r="34" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -27890,10 +27893,10 @@
     </row>
     <row r="35" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C35" s="8">
         <v>2.9360339951290799E-2</v>
@@ -28230,10 +28233,10 @@
     </row>
     <row r="36" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -28484,10 +28487,10 @@
     </row>
     <row r="37" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C37" s="8">
         <v>0.667726589167704</v>
@@ -28896,7 +28899,7 @@
     </row>
     <row r="38" spans="1:142" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C38" s="98">
         <f t="shared" ref="C38:AH38" si="6">SUM(C25:C37)</f>
@@ -29461,7 +29464,7 @@
     </row>
     <row r="39" spans="1:142" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C39" s="98">
         <f t="shared" ref="C39:AH39" si="11">(C25+C26+C30+C32+C33+C35+C36+C37)/C38</f>
@@ -30026,10 +30029,10 @@
     </row>
     <row r="40" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C40" s="8">
         <v>0.19950510085094</v>
@@ -30408,10 +30411,10 @@
     </row>
     <row r="41" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C41" s="8">
         <v>0.65119080084876801</v>
@@ -30810,10 +30813,10 @@
     </row>
     <row r="42" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C42" s="8">
         <v>5.2916754741798799</v>
@@ -31224,10 +31227,10 @@
     </row>
     <row r="43" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -31374,10 +31377,10 @@
     </row>
     <row r="44" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C44" s="8">
         <v>5.4903400135183</v>
@@ -31740,10 +31743,10 @@
     </row>
     <row r="45" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -31916,10 +31919,10 @@
     </row>
     <row r="46" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C46" s="8">
         <v>1.6280246606859099</v>
@@ -32176,10 +32179,10 @@
     </row>
     <row r="47" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -32330,10 +32333,10 @@
     </row>
     <row r="48" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C48" s="8">
         <v>54.236007672153001</v>
@@ -32738,10 +32741,10 @@
     </row>
     <row r="49" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8">
@@ -33012,10 +33015,10 @@
     </row>
     <row r="50" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C50" s="8">
         <v>2.9360339951290799E-2</v>
@@ -33342,10 +33345,10 @@
     </row>
     <row r="51" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -33586,10 +33589,10 @@
     </row>
     <row r="52" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C52" s="8">
         <v>0.667726589167704</v>
@@ -33990,7 +33993,7 @@
     </row>
     <row r="53" spans="1:142" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C53" s="98">
         <f t="shared" ref="C53:AH53" si="16">SUM(C40:C52)</f>
@@ -34555,7 +34558,7 @@
     </row>
     <row r="54" spans="1:142" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="98">
         <f t="shared" ref="C54:AH54" si="21">(C40+C41+C45+C47+C48+C50+C51+C52)/C53</f>
@@ -35120,15 +35123,15 @@
     </row>
     <row r="56" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O56" s="100" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B57" t="str">
         <f>A8</f>
@@ -35834,7 +35837,7 @@
     </row>
     <row r="63" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B63" t="str">
         <f>A23</f>
@@ -36434,7 +36437,7 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B69" t="str">
         <f>A40</f>
@@ -37039,7 +37042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:D30"/>
   <sheetViews>
@@ -37179,7 +37182,7 @@
     </row>
     <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C13">
         <v>6.9</v>
@@ -37371,11 +37374,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -37462,7 +37467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AV211"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -37480,7 +37485,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V1" s="90">
         <v>0.01</v>
@@ -37488,10 +37493,10 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="T2" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="U2" s="90" t="s">
         <v>240</v>
-      </c>
-      <c r="U2" s="90" t="s">
-        <v>241</v>
       </c>
       <c r="V2" s="90" t="s">
         <v>0</v>
@@ -37527,7 +37532,7 @@
         <v>10</v>
       </c>
       <c r="AG2" s="90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AH2" s="90" t="s">
         <v>11</v>
@@ -37577,13 +37582,13 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="D3" s="91" t="s">
         <v>200</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>201</v>
       </c>
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
@@ -37596,10 +37601,10 @@
       <c r="M3" s="92"/>
       <c r="N3" s="92"/>
       <c r="T3" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U3" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V3" s="90">
         <v>0.62</v>
@@ -37685,30 +37690,30 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>203</v>
-      </c>
       <c r="T4" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="U4" s="90" t="s">
         <v>242</v>
-      </c>
-      <c r="U4" s="90" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>205</v>
-      </c>
       <c r="T5" s="90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U5" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V5" s="90" t="s">
         <v>0</v>
@@ -37744,7 +37749,7 @@
         <v>10</v>
       </c>
       <c r="AG5" s="90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AH5" s="90" t="s">
         <v>11</v>
@@ -37794,112 +37799,112 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="T6" s="90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U6" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="C7" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="E7" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="F7" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="G7" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="H7" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="90" t="s">
-        <v>212</v>
-      </c>
       <c r="T7" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="U7" s="90" t="s">
         <v>246</v>
-      </c>
-      <c r="U7" s="90" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="T8" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="U8" s="90" t="s">
         <v>248</v>
-      </c>
-      <c r="U8" s="90" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="93"/>
       <c r="C9" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="E9" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="F9" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="G9" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="H9" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="I9" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="J9" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="K9" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="L9" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="93" t="s">
+      <c r="M9" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="N9" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="N9" s="93" t="s">
+      <c r="O9" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="O9" s="93" t="s">
+      <c r="P9" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="P9" s="93" t="s">
+      <c r="Q9" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="93" t="s">
+      <c r="R9" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="R9" s="93" t="s">
-        <v>229</v>
-      </c>
       <c r="T9" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="U9" s="90" t="s">
         <v>250</v>
-      </c>
-      <c r="U9" s="90" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="94">
@@ -37951,15 +37956,15 @@
         <v>13</v>
       </c>
       <c r="T10" s="90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U10" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="94">
@@ -38011,15 +38016,15 @@
         <v>12.9</v>
       </c>
       <c r="T11" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="U11" s="90" t="s">
         <v>253</v>
-      </c>
-      <c r="U11" s="90" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="94"/>
       <c r="C12" s="94">
@@ -38071,10 +38076,10 @@
         <v>14</v>
       </c>
       <c r="T12" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="U12" s="90" t="s">
         <v>255</v>
-      </c>
-      <c r="U12" s="90" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
@@ -38134,10 +38139,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="T13" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="U13" s="90" t="s">
         <v>257</v>
-      </c>
-      <c r="U13" s="90" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
@@ -38205,7 +38210,7 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="94" t="str">
         <f t="shared" si="0"/>
@@ -38260,10 +38265,10 @@
         <v>2.8</v>
       </c>
       <c r="T15" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U15" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
@@ -38323,15 +38328,15 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="T16" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="U16" s="90" t="s">
         <v>260</v>
-      </c>
-      <c r="U16" s="90" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="94" t="s">
         <v>5</v>
@@ -38448,10 +38453,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U18" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -38511,10 +38516,10 @@
         <v>4.8</v>
       </c>
       <c r="T19" s="90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U19" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -38574,10 +38579,10 @@
         <v>5.9</v>
       </c>
       <c r="T20" s="90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U20" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -38700,10 +38705,10 @@
         <v>16.3</v>
       </c>
       <c r="T22" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="U22" s="90" t="s">
         <v>265</v>
-      </c>
-      <c r="U22" s="90" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -38763,10 +38768,10 @@
         <v>17.3</v>
       </c>
       <c r="T23" s="90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U23" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -38826,10 +38831,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U24" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -38889,10 +38894,10 @@
         <v>44.7</v>
       </c>
       <c r="T25" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="U25" s="90" t="s">
         <v>269</v>
-      </c>
-      <c r="U25" s="90" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -38952,10 +38957,10 @@
         <v>3.5</v>
       </c>
       <c r="T26" s="90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U26" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -39014,10 +39019,10 @@
         <v>2.1</v>
       </c>
       <c r="T27" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U27" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -39077,10 +39082,10 @@
         <v>0.7</v>
       </c>
       <c r="T28" s="90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U28" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -39139,10 +39144,10 @@
         <v>0</v>
       </c>
       <c r="T29" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U29" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -39265,7 +39270,7 @@
         <v>72.7</v>
       </c>
       <c r="T31" s="90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U31" s="90" t="s">
         <v>4</v>
@@ -39328,10 +39333,10 @@
         <v>1.4</v>
       </c>
       <c r="T32" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U32" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -39454,10 +39459,10 @@
         <v>22.4</v>
       </c>
       <c r="T34" s="90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U34" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -39517,15 +39522,15 @@
         <v>29.4</v>
       </c>
       <c r="T35" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U35" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="94" t="str">
         <f t="shared" si="0"/>
@@ -39580,10 +39585,10 @@
         <v>14.1</v>
       </c>
       <c r="T36" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U36" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -39643,10 +39648,10 @@
         <v>27.7</v>
       </c>
       <c r="T37" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="U37" s="90" t="s">
         <v>277</v>
-      </c>
-      <c r="U37" s="90" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -39706,10 +39711,10 @@
         <v>52.8</v>
       </c>
       <c r="T38" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U38" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -39769,15 +39774,15 @@
         <v>1.7</v>
       </c>
       <c r="T39" s="90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U39" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B40" s="94" t="s">
         <v>13</v>
@@ -39831,15 +39836,15 @@
         <v>99.9</v>
       </c>
       <c r="T40" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U40" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="94" t="str">
         <f t="shared" si="0"/>
@@ -39894,15 +39899,15 @@
         <v>106.4</v>
       </c>
       <c r="T41" s="90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U41" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" s="94" t="str">
         <f t="shared" si="0"/>
@@ -39965,7 +39970,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="94" t="str">
         <f t="shared" si="0"/>
@@ -40020,10 +40025,10 @@
         <v>46.4</v>
       </c>
       <c r="T43" s="90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U43" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -40044,18 +40049,18 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T46" s="90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U46" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T47" s="90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U47" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -40071,12 +40076,12 @@
         <v>145</v>
       </c>
       <c r="U49" s="90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T50" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U50" s="90" t="s">
         <v>6</v>
@@ -40092,34 +40097,34 @@
     </row>
     <row r="52" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T52" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="U52" s="90" t="s">
         <v>287</v>
-      </c>
-      <c r="U52" s="90" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="53" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T53" s="90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U53" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T54" s="90" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U54" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T55" s="90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U55" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="20:21" x14ac:dyDescent="0.2">
@@ -40132,10 +40137,10 @@
     </row>
     <row r="57" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T57" s="90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U57" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="20:21" x14ac:dyDescent="0.2">
@@ -40148,82 +40153,82 @@
     </row>
     <row r="59" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T59" s="90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U59" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T60" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="U60" s="90" t="s">
         <v>294</v>
-      </c>
-      <c r="U60" s="90" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="61" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T61" s="90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U61" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T62" s="90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U62" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T63" s="90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U63" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T64" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="U64" s="90" t="s">
         <v>299</v>
-      </c>
-      <c r="U64" s="90" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="65" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T65" s="90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U65" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T66" s="90" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U66" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T67" s="90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U67" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T68" s="90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U68" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="20:21" x14ac:dyDescent="0.2">
@@ -40236,10 +40241,10 @@
     </row>
     <row r="70" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T70" s="90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U70" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="20:21" x14ac:dyDescent="0.2">
@@ -40252,7 +40257,7 @@
     </row>
     <row r="72" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T72" s="90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U72" s="90" t="s">
         <v>16</v>
@@ -40260,31 +40265,31 @@
     </row>
     <row r="73" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T73" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="U73" s="90" t="s">
         <v>307</v>
-      </c>
-      <c r="U73" s="90" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="74" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T74" s="90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U74" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T75" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U75" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T76" s="90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U76" s="90" t="s">
         <v>19</v>
@@ -40292,23 +40297,23 @@
     </row>
     <row r="77" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T77" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="U77" s="90" t="s">
         <v>311</v>
-      </c>
-      <c r="U77" s="90" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="78" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T78" s="90" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U78" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T79" s="90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U79" s="90" t="s">
         <v>8</v>
@@ -40316,23 +40321,23 @@
     </row>
     <row r="80" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T80" s="90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U80" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T81" s="90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U81" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T82" s="90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U82" s="90" t="s">
         <v>19</v>
@@ -40348,39 +40353,39 @@
     </row>
     <row r="84" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T84" s="90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U84" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T85" s="90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U85" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T86" s="90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U86" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T87" s="90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U87" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T88" s="90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U88" s="90" t="s">
         <v>5</v>
@@ -40388,7 +40393,7 @@
     </row>
     <row r="89" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T89" s="90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U89" s="90" t="s">
         <v>20</v>
@@ -40396,87 +40401,87 @@
     </row>
     <row r="90" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T90" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U90" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T91" s="90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U91" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T92" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U92" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T93" s="90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U93" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T94" s="90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U94" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T95" s="90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U95" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T96" s="90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U96" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T97" s="90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U97" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T98" s="90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U98" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T99" s="90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U99" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T100" s="90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U100" s="90" t="s">
         <v>5</v>
@@ -40484,26 +40489,26 @@
     </row>
     <row r="101" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T101" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U101" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T102" s="90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U102" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T103" s="90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U103" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="20:21" x14ac:dyDescent="0.2">
@@ -40524,66 +40529,66 @@
     </row>
     <row r="106" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T106" s="90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U106" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T107" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U107" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T108" s="90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U108" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T109" s="90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U109" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T110" s="90" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U110" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T111" s="90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U111" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T112" s="90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U112" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T113" s="90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U113" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="20:21" x14ac:dyDescent="0.2">
@@ -40596,15 +40601,15 @@
     </row>
     <row r="115" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T115" s="90" t="s">
+        <v>343</v>
+      </c>
+      <c r="U115" s="90" t="s">
         <v>344</v>
-      </c>
-      <c r="U115" s="90" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="116" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T116" s="90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U116" s="90" t="s">
         <v>14</v>
@@ -40612,39 +40617,39 @@
     </row>
     <row r="117" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T117" s="90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U117" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T118" s="90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U118" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T119" s="90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U119" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T120" s="90" t="s">
+        <v>349</v>
+      </c>
+      <c r="U120" s="90" t="s">
         <v>350</v>
-      </c>
-      <c r="U120" s="90" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="121" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T121" s="90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U121" s="90" t="s">
         <v>14</v>
@@ -40652,23 +40657,23 @@
     </row>
     <row r="122" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T122" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U122" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T123" s="90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U123" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T124" s="90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U124" s="90" t="s">
         <v>26</v>
@@ -40684,34 +40689,34 @@
     </row>
     <row r="126" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T126" s="90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U126" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T127" s="90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U127" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T128" s="90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U128" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T129" s="90" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U129" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="20:21" x14ac:dyDescent="0.2">
@@ -40724,10 +40729,10 @@
     </row>
     <row r="131" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T131" s="90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U131" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="20:21" x14ac:dyDescent="0.2">
@@ -40740,7 +40745,7 @@
     </row>
     <row r="133" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T133" s="90" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U133" s="90" t="s">
         <v>2</v>
@@ -40748,506 +40753,506 @@
     </row>
     <row r="134" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T134" s="90" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U134" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T135" s="90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U135" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T136" s="90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U136" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T137" s="90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U137" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T138" s="90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U138" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T139" s="90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U139" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T140" s="90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U140" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T141" s="90" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U141" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T142" s="90" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U142" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T143" s="90" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U143" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T144" s="90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U144" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T145" s="90" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U145" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T146" s="90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U146" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T147" s="90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U147" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T148" s="90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U148" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T149" s="90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U149" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T150" s="90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U150" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T151" s="90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U151" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T152" s="90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U152" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T153" s="90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U153" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T154" s="90" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U154" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T155" s="90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U155" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T156" s="90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U156" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T157" s="90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U157" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T158" s="90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U158" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T159" s="90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U159" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T160" s="90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U160" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="161" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T161" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U161" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T162" s="90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U162" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T163" s="90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U163" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T164" s="90" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U164" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T165" s="90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U165" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T166" s="90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U166" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T167" s="90" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U167" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T168" s="90" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U168" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T169" s="90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U169" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T170" s="90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U170" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T171" s="90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U171" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T172" s="90" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U172" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T173" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U173" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T174" s="90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U174" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T175" s="90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U175" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T176" s="90" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U176" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T177" s="90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U177" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T178" s="90" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U178" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T179" s="90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U179" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T180" s="90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U180" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T181" s="90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U181" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T182" s="90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U182" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T183" s="90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U183" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T184" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U184" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T185" s="90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U185" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T186" s="90" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U186" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T187" s="90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U187" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T188" s="90" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U188" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T189" s="90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U189" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T190" s="90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U190" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T191" s="90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U191" s="90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T192" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U192" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T193" s="90" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U193" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T194" s="90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U194" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T195" s="90" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U195" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T196" s="90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U196" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="20:21" x14ac:dyDescent="0.2">
@@ -41260,15 +41265,15 @@
     </row>
     <row r="198" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T198" s="90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U198" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T199" s="90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U199" s="90" t="s">
         <v>26</v>
@@ -41276,18 +41281,18 @@
     </row>
     <row r="200" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T200" s="90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U200" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T201" s="90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U201" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="20:21" x14ac:dyDescent="0.2">
@@ -41300,71 +41305,71 @@
     </row>
     <row r="203" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T203" s="90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U203" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T204" s="90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U204" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T205" s="90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U205" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T206" s="90" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U206" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T207" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U207" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T208" s="90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U208" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T209" s="90" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U209" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T210" s="90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U210" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="211" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T211" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U211" s="90" t="s">
         <v>5</v>
@@ -41379,12 +41384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
